--- a/reports/xlsx/benchmark_constraint_4411_no_mondays.xlsx
+++ b/reports/xlsx/benchmark_constraint_4411_no_mondays.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BQ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FIXED_TIME_CONSTRAINTS: [['monday', 1, 23, -100], ['tuesday', 1, 23, 20], ['wednesday', 1, 23, 20], ['thursday', 1, 23, 10], ['friday', 1, 23, 0], ['saturday', 1, 23, -15]]</t>
+          <t>FIXED_TIME_CONSTRAINTS: [['monday', 1, 23, -100], ['tuesday', 1, 23, 15], ['wednesday', 1, 23, 15], ['thursday', 1, 23, 7], ['friday', 1, 23, 7], ['saturday', 1, 23, -7]]</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>offering_order</t>
+          <t>ilp_gpu</t>
         </is>
       </c>
       <c r="P6" s="1" t="n"/>
@@ -520,7 +520,7 @@
       <c r="AA6" s="1" t="n"/>
       <c r="AB6" s="1" t="inlineStr">
         <is>
-          <t>hill_climbing_v1</t>
+          <t>offering_order</t>
         </is>
       </c>
       <c r="AC6" s="1" t="n"/>
@@ -537,7 +537,7 @@
       <c r="AN6" s="1" t="n"/>
       <c r="AO6" s="1" t="inlineStr">
         <is>
-          <t>hill_climbing_v3</t>
+          <t>hill_climbing_v1</t>
         </is>
       </c>
       <c r="AP6" s="1" t="n"/>
@@ -554,11 +554,28 @@
       <c r="BA6" s="1" t="n"/>
       <c r="BB6" s="1" t="inlineStr">
         <is>
-          <t>score_percent</t>
+          <t>hill_climbing_v3</t>
         </is>
       </c>
       <c r="BC6" s="1" t="n"/>
       <c r="BD6" s="1" t="n"/>
+      <c r="BE6" s="1" t="n"/>
+      <c r="BF6" s="1" t="n"/>
+      <c r="BG6" s="1" t="n"/>
+      <c r="BH6" s="1" t="n"/>
+      <c r="BI6" s="1" t="n"/>
+      <c r="BJ6" s="1" t="n"/>
+      <c r="BK6" s="1" t="n"/>
+      <c r="BL6" s="1" t="n"/>
+      <c r="BM6" s="1" t="n"/>
+      <c r="BN6" s="1" t="n"/>
+      <c r="BO6" s="1" t="inlineStr">
+        <is>
+          <t>score_percent</t>
+        </is>
+      </c>
+      <c r="BP6" s="1" t="n"/>
+      <c r="BQ6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr"/>
@@ -824,15 +841,80 @@
       </c>
       <c r="BB7" s="1" t="inlineStr">
         <is>
+          <t>courses</t>
+        </is>
+      </c>
+      <c r="BC7" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="BD7" s="1" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="BE7" s="1" t="inlineStr">
+        <is>
+          <t>timings</t>
+        </is>
+      </c>
+      <c r="BF7" s="1" t="inlineStr">
+        <is>
+          <t>timings_mean</t>
+        </is>
+      </c>
+      <c r="BG7" s="1" t="inlineStr">
+        <is>
+          <t>timings_median</t>
+        </is>
+      </c>
+      <c r="BH7" s="1" t="inlineStr">
+        <is>
+          <t>timings_stdev</t>
+        </is>
+      </c>
+      <c r="BI7" s="1" t="inlineStr">
+        <is>
+          <t>memory_mean</t>
+        </is>
+      </c>
+      <c r="BJ7" s="1" t="inlineStr">
+        <is>
+          <t>memory_median</t>
+        </is>
+      </c>
+      <c r="BK7" s="1" t="inlineStr">
+        <is>
+          <t>memory_stdev</t>
+        </is>
+      </c>
+      <c r="BL7" s="1" t="inlineStr">
+        <is>
+          <t>memory_min</t>
+        </is>
+      </c>
+      <c r="BM7" s="1" t="inlineStr">
+        <is>
+          <t>memory_max</t>
+        </is>
+      </c>
+      <c r="BN7" s="1" t="inlineStr">
+        <is>
+          <t>memory_peak</t>
+        </is>
+      </c>
+      <c r="BO7" s="1" t="inlineStr">
+        <is>
           <t>hill_climbing_v1_vs_ilp</t>
         </is>
       </c>
-      <c r="BC7" s="1" t="inlineStr">
+      <c r="BP7" s="1" t="inlineStr">
         <is>
           <t>hill_climbing_v3_vs_ilp</t>
         </is>
       </c>
-      <c r="BD7" s="1" t="inlineStr">
+      <c r="BQ7" s="1" t="inlineStr">
         <is>
           <t>offering_order_vs_ilp</t>
         </is>
@@ -843,184 +925,3714 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>225</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[0.3428086997009814]</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3428086997009814</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3428086997009814</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>787803.9130434783</v>
+      </c>
+      <c r="J9" t="n">
+        <v>908359</v>
+      </c>
+      <c r="K9" t="n">
+        <v>496535.2328312768</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3475</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1752219</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2526468</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>225</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>[0.33511359989643097]</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>0.335113599896431</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.335113599896431</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>755063.0454545454</v>
+      </c>
+      <c r="W9" t="n">
+        <v>907729</v>
+      </c>
+      <c r="X9" t="n">
+        <v>448108.7265440192</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3451</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1742458</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2526056</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>225</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>[0.10175690008327365]</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.1017569000832736</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.1017569000832736</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>5640</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6283.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1304.726535843175</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>3683</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>6310</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>9639</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>225</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>[0.2072603995911777]</t>
+        </is>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.2072603995911777</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.2072603995911777</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>9547.777777777777</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8923</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3796.186730713394</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>3691</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>15149</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>20023</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>225</v>
+      </c>
+      <c r="BD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>[0.1327212997712195]</t>
+        </is>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.1327212997712195</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.1327212997712195</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>7917</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>8627</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2664.822695790472</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3523</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>10395</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>14155</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>390</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[0.3961248998530209]</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3961248998530209</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3961248998530209</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>767298.6785714285</v>
+      </c>
+      <c r="J10" t="n">
+        <v>908177</v>
+      </c>
+      <c r="K10" t="n">
+        <v>438679.2663250515</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3339</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1773940</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2526412</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>[0.40099440002813935]</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4009944000281394</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4009944000281394</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>792465.9666666667</v>
+      </c>
+      <c r="W10" t="n">
+        <v>907693</v>
+      </c>
+      <c r="X10" t="n">
+        <v>504513.3096628174</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>3315</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2266189</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2525928</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>358</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>[0.0983338002115488]</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.09833380021154881</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.09833380021154881</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5234</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>5869</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1301.299350649189</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>3283</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>5915</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>7387</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>390</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>[0.4869610001333058]</t>
+        </is>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.4869610001333058</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4869610001333058</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>9503.333333333334</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>9430</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>2610.201219407634</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>3260</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>13767</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>19588</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>390</v>
+      </c>
+      <c r="BD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>[0.2576256999745965]</t>
+        </is>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.2576256999745965</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.2576256999745965</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>8626.799999999999</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>8910</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>2090.501098886208</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>3396</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>11056</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>14028</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.9179487179487179</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>740</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[2.414816299919039]</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.414816299919039</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.414816299919039</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3297881.735449736</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3550304</v>
-      </c>
-      <c r="K9" t="n">
-        <v>780307.5181278429</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3531</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5103139</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6147241</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="C11" t="n">
+        <v>555</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[0.3887792997993529]</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3887792997993529</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3887792997993529</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>789491.1071428572</v>
+      </c>
+      <c r="J11" t="n">
+        <v>907978</v>
+      </c>
+      <c r="K11" t="n">
+        <v>451378.0494833932</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3212</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1752036</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2526285</v>
+      </c>
+      <c r="O11" t="n">
         <v>3</v>
       </c>
-      <c r="P9" t="n">
-        <v>700</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[0.05426459992304444]</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>0.05426459992304444</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.05426459992304444</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>52157.75</v>
-      </c>
-      <c r="W9" t="n">
-        <v>53591</v>
-      </c>
-      <c r="X9" t="n">
-        <v>52912.46748089402</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>3499</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>97950</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>98054</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="P11" t="n">
+        <v>555</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>[0.38400250021368265]</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>0.3840025002136827</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.3840025002136827</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>802399.1428571428</v>
+      </c>
+      <c r="W11" t="n">
+        <v>907658</v>
+      </c>
+      <c r="X11" t="n">
+        <v>449308.7396739421</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3476</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1751732</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2525981</v>
+      </c>
+      <c r="AB11" t="n">
         <v>3</v>
       </c>
-      <c r="AC9" t="n">
-        <v>740</v>
-      </c>
-      <c r="AD9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>[0.07821189984679222]</t>
-        </is>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.07821189984679222</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.07821189984679222</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11494.4</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13407</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>4713.854346498203</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>3731</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>15282</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>22705</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AC11" t="n">
+        <v>523</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>[0.10153920017182827]</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.1015392001718283</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.1015392001718283</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>5261.8</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>5775</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1182.0859528816</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3148</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>5834</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>7312</v>
+      </c>
+      <c r="AO11" t="n">
         <v>3</v>
       </c>
-      <c r="AP9" t="n">
-        <v>740</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>[0.09482230013236403]</t>
-        </is>
-      </c>
-      <c r="AS9" t="n">
-        <v>0.09482230013236403</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0.09482230013236403</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>10682.66666666667</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>11435</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>3539.953822674339</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>3739</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>13258</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>16462</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0.9459459459459459</v>
-      </c>
+      <c r="AP11" t="n">
+        <v>555</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>[0.6460960996337235]</t>
+        </is>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.6460960996337235</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.6460960996337235</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>10341.28125</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>10585</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>2459.998390169615</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>3124</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>14353</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>19454</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>555</v>
+      </c>
+      <c r="BD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>[0.43305420037359]</t>
+        </is>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.43305420037359</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.43305420037359</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>9132.75</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>9171</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1771.271410003204</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>3260</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>11587</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>14437</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.9423423423423424</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>705</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[0.3845033999532461]</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3845033999532461</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3845033999532461</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>800179.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>907642</v>
+      </c>
+      <c r="K12" t="n">
+        <v>407261.4334834321</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3068</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1773485</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2525957</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>705</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[0.3794216997921467]</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>0.3794216997921467</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.3794216997921467</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>756844.7037037037</v>
+      </c>
+      <c r="W12" t="n">
+        <v>907100</v>
+      </c>
+      <c r="X12" t="n">
+        <v>430397.8976266581</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3052</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1742079</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2525509</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>688</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>[0.09998399997130036]</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.09998399997130036</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.09998399997130036</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>5007.25</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>5650</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1314.37269575008</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3036</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>5693</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>7140</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>688</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>[0.9586354000493884]</t>
+        </is>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.9586354000493884</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.9586354000493884</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>10587.09523809524</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>10833</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2254.831612441287</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>3020</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>14360</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>19288</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>705</v>
+      </c>
+      <c r="BD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>[0.5523282000795007]</t>
+        </is>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.5523282000795007</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.5523282000795007</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>9254.346153846154</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>9323</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1542.651871092313</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>3708</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>11669</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>14730</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.975886524822695</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.975886524822695</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>845</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[0.38529600016772747]</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3852960001677275</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3852960001677275</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>766632.0769230769</v>
+      </c>
+      <c r="J13" t="n">
+        <v>907466</v>
+      </c>
+      <c r="K13" t="n">
+        <v>403484.8297424748</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2972</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1675488</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2525905</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>845</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>[0.39447470009326935]</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>0.3944747000932693</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.3944747000932693</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>770913.7407407408</v>
+      </c>
+      <c r="W13" t="n">
+        <v>906912</v>
+      </c>
+      <c r="X13" t="n">
+        <v>413288.7805904833</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2956</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1741967</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2525357</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>821</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>[0.10110800014808774]</t>
+        </is>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.1011080001480877</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.1011080001480877</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>5051</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>5576</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1175.791648209835</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2948</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>5606</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>7112</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>821</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>[1.134482799563557]</t>
+        </is>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.134482799563557</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>1.134482799563557</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>10671.14583333333</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>11070</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>2126.529737144767</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>13922</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>19300</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>838</v>
+      </c>
+      <c r="BD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>[0.6640119003131986]</t>
+        </is>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.6640119003131986</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.6640119003131986</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>8884.758620689656</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>8874</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1468.7595994865</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>10975</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>14654</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0.9715976331360947</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0.991715976331361</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0.9715976331360947</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>978</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[0.3785733999684453]</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3785733999684453</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3785733999684453</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>799873.64</v>
+      </c>
+      <c r="J14" t="n">
+        <v>907009</v>
+      </c>
+      <c r="K14" t="n">
+        <v>406368.9703309337</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1742271</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2525645</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>978</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[0.3905392000451684]</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>0.3905392000451684</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.3905392000451684</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>774567</v>
+      </c>
+      <c r="W14" t="n">
+        <v>906591</v>
+      </c>
+      <c r="X14" t="n">
+        <v>382747.3346832346</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1572944</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2525157</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>931</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>[0.09950030036270618]</t>
+        </is>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.09950030036270618</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.09950030036270618</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>5343.2</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>5856</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1182.787258977708</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>3228</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>5913</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7428</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>952</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>[1.4742954997345805]</t>
+        </is>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.474295499734581</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1.474295499734581</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>11010.90769230769</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>11376</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>2147.889805447699</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>14948</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>19212</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>969</v>
+      </c>
+      <c r="BD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>[0.8047521999105811]</t>
+        </is>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.8047521999105811</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.8047521999105811</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>8714.025641025641</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>8618</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1346.401275274975</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>10855</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>14876</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0.9734151329243353</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0.99079754601227</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0.9519427402862985</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1109</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[0.383228600025177]</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.383228600025177</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.383228600025177</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>756572.2592592592</v>
+      </c>
+      <c r="J15" t="n">
+        <v>907312</v>
+      </c>
+      <c r="K15" t="n">
+        <v>427792.2860649324</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1742375</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2525749</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1109</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[0.3999199001118541]</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>0.3999199001118541</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.3999199001118541</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>784194.4444444445</v>
+      </c>
+      <c r="W15" t="n">
+        <v>906766</v>
+      </c>
+      <c r="X15" t="n">
+        <v>421603.7014915906</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1772697</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2525233</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1033</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>[0.09870840003713965]</t>
+        </is>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.09870840003713965</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.09870840003713965</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>5054</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>5568</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1182.206623226245</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>5626</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>7284</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>[1.6317716003395617]</t>
+        </is>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.631771600339562</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1.631771600339562</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>10935.15277777778</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>11253.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1922.641497638829</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>13821</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>19184</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1071</v>
+      </c>
+      <c r="BD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>[0.8962465999647975]</t>
+        </is>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.8962465999647975</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.8962465999647975</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>8546.631578947368</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>8406</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1282.972149453415</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>10787</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>15012</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.957619477006312</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.9657348963029756</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0.9314697926059513</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1212</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[0.393998000305146]</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.393998000305146</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.393998000305146</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>799292.3461538461</v>
+      </c>
+      <c r="J16" t="n">
+        <v>907303</v>
+      </c>
+      <c r="K16" t="n">
+        <v>399573.5395789809</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3228</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1742551</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2525925</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1212</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>[0.3924724003300071]</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3924724003300071</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3924724003300071</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>777349.5925925926</v>
+      </c>
+      <c r="W16" t="n">
+        <v>906832</v>
+      </c>
+      <c r="X16" t="n">
+        <v>416780.8538197409</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1741803</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2525241</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1136</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>[0.10019889986142516]</t>
+        </is>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.1001988998614252</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.1001988998614252</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>5336.6</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>5568</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1461.869282801988</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>6944</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>7308</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1164</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>[1.8441299996338785]</t>
+        </is>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.844129999633878</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1.844129999633878</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>11139.67857142857</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>11505</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1844.968267338789</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>14622</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>19092</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1146</v>
+      </c>
+      <c r="BD16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>[1.0078817000612617]</t>
+        </is>
+      </c>
+      <c r="BF16" t="n">
+        <v>1.007881700061262</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.007881700061262</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>8808.744680851063</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>8639</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1394.238353212577</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>11978</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>15614</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0.9603960396039604</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0.9455445544554455</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0.9372937293729373</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[0.4258293001912534]</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4258293001912534</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4258293001912534</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>771656.4827586206</v>
+      </c>
+      <c r="J17" t="n">
+        <v>907340</v>
+      </c>
+      <c r="K17" t="n">
+        <v>369800.365168407</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1598073</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2525629</v>
+      </c>
+      <c r="O17" t="n">
+        <v>9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1297</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>[0.4180356999859214]</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4180356999859214</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4180356999859214</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>806279.2413793104</v>
+      </c>
+      <c r="W17" t="n">
+        <v>906545</v>
+      </c>
+      <c r="X17" t="n">
+        <v>399982.4673443874</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1772653</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2525125</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1178</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>[0.09844939969480038]</t>
+        </is>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.09844939969480038</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.09844939969480038</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>4911.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>5554</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1314.539843443325</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>5598</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>7368</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1246</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>[1.9503866001032293]</t>
+        </is>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.950386600103229</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1.950386600103229</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>11345.06976744186</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>11691</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1925.500764755818</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>3228</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>16017</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>19586</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1217</v>
+      </c>
+      <c r="BD17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>[1.069259200245142]</t>
+        </is>
+      </c>
+      <c r="BF17" t="n">
+        <v>1.069259200245142</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.069259200245142</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>8525.274509803921</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>8286</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1361.284086125029</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>12560</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>15598</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0.9606784888203547</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0.938319198149576</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0.9082498072474943</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1399</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[0.40080019971355796]</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.400800199713558</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.400800199713558</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>831839.4444444445</v>
+      </c>
+      <c r="J18" t="n">
+        <v>907073</v>
+      </c>
+      <c r="K18" t="n">
+        <v>471573.2357185918</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2265914</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2525653</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1399</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>[0.3989862999878824]</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>0.3989862999878824</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.3989862999878824</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>757975.8571428572</v>
+      </c>
+      <c r="W18" t="n">
+        <v>906705</v>
+      </c>
+      <c r="X18" t="n">
+        <v>434865.5777028042</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1772773</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2525245</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1253</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>[0.09913400001823902]</t>
+        </is>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.09913400001823902</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.09913400001823902</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>5043</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>5540</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1176.476094104763</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>5626</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>7676</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1321</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>[2.0097226998768747]</t>
+        </is>
+      </c>
+      <c r="AS18" t="n">
+        <v>2.009722699876875</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.009722699876875</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>11132.17391304348</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>11450</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1913.147171884592</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>15128</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>19298</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1277</v>
+      </c>
+      <c r="BD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>[1.1213083998300135]</t>
+        </is>
+      </c>
+      <c r="BF18" t="n">
+        <v>1.121308399830014</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.121308399830014</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>8842.98</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>8581.5</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1349.64957643963</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>11355</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>16129</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0.9442458899213724</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0.9127948534667619</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0.8956397426733381</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1474</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[0.4044365002773702]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4044365002773702</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4044365002773702</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>767690.8965517242</v>
+      </c>
+      <c r="J19" t="n">
+        <v>907456</v>
+      </c>
+      <c r="K19" t="n">
+        <v>396516.3533200603</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1707533</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2525773</v>
+      </c>
+      <c r="O19" t="n">
+        <v>11</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1474</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>[0.402424399740994]</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>0.402424399740994</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.402424399740994</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>799866.4074074074</v>
+      </c>
+      <c r="W19" t="n">
+        <v>907096</v>
+      </c>
+      <c r="X19" t="n">
+        <v>414010.7319437931</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3228</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1772941</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2525413</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1323</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>[0.09797149989753962]</t>
+        </is>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.09797149989753962</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.09797149989753962</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>4918.75</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>5570</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1319.220318976326</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>5595</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7672</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1391</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>[2.0674970000982285]</t>
+        </is>
+      </c>
+      <c r="AS19" t="n">
+        <v>2.067497000098228</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.067497000098228</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>11193.47368421053</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>11450</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1904.736871547361</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>16566</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>19545</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1321</v>
+      </c>
+      <c r="BD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>[1.2669142000377178]</t>
+        </is>
+      </c>
+      <c r="BF19" t="n">
+        <v>1.266914200037718</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.266914200037718</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>8791.254545454545</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>8594</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1323.199548487621</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>11727</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>16792</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0.9436906377204884</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0.8962008141112618</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0.8975576662143826</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1544</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[0.4229399999603629]</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4229399999603629</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4229399999603629</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>767121.7931034482</v>
+      </c>
+      <c r="J20" t="n">
+        <v>907340</v>
+      </c>
+      <c r="K20" t="n">
+        <v>411396.9906652019</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1742375</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2525749</v>
+      </c>
+      <c r="O20" t="n">
+        <v>12</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1544</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>[0.39467129996046424]</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>0.3946712999604642</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3946712999604642</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>798494.2307692308</v>
+      </c>
+      <c r="W20" t="n">
+        <v>906559</v>
+      </c>
+      <c r="X20" t="n">
+        <v>400535.0716930848</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1741751</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2525125</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1383</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>[0.09712950000539422]</t>
+        </is>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.09712950000539422</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.09712950000539422</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>4923</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>5572</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1322.367069563768</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>5608</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>7728</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1451</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>[2.1056830999441445]</t>
+        </is>
+      </c>
+      <c r="AS20" t="n">
+        <v>2.105683099944144</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.105683099944144</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>11306.9175257732</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>11674</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>2036.15401692189</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>17681</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>19961</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1363</v>
+      </c>
+      <c r="BD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>[1.1684531001374125]</t>
+        </is>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.168453100137413</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.168453100137413</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>9052.673076923076</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>8669</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1503.093525342852</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>3388</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>13813</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>16571</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0.9397668393782384</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0.8827720207253886</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0.8957253886010362</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1604</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[0.41248750034719706]</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4124875003471971</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4124875003471971</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>799495.6785714285</v>
+      </c>
+      <c r="J21" t="n">
+        <v>907175</v>
+      </c>
+      <c r="K21" t="n">
+        <v>406419.556622177</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1773209</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2525745</v>
+      </c>
+      <c r="O21" t="n">
+        <v>13</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1604</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[0.3935579997487366]</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>0.3935579997487366</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.3935579997487366</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>755266.1481481482</v>
+      </c>
+      <c r="W21" t="n">
+        <v>906832</v>
+      </c>
+      <c r="X21" t="n">
+        <v>414415.9536309182</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1741803</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2525241</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1427</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>[0.098106499761343]</t>
+        </is>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.098106499761343</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.098106499761343</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>4911.75</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>5554</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1315.118340682693</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>5599</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>7728</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1495</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>[2.1081543997861445]</t>
+        </is>
+      </c>
+      <c r="AS21" t="n">
+        <v>2.108154399786144</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.108154399786144</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>11512.82474226804</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>11696</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>2139.490496250944</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>18194</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>20426</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1363</v>
+      </c>
+      <c r="BD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>[1.1773478998802602]</t>
+        </is>
+      </c>
+      <c r="BF21" t="n">
+        <v>1.17734789988026</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.17734789988026</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>8728.219999999999</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>8352</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1475.03837777814</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>12639</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>16285</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0.9320448877805486</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0.8497506234413965</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0.8896508728179551</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[0.5504854000173509]</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5504854000173509</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5504854000173509</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>794131.9761904762</v>
+      </c>
+      <c r="J22" t="n">
+        <v>907638</v>
+      </c>
+      <c r="K22" t="n">
+        <v>349119.8196522561</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1641264</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2525773</v>
+      </c>
+      <c r="O22" t="n">
+        <v>14</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1656</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[0.5497940997593105]</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5497940997593105</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.5497940997593105</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>813582.5813953489</v>
+      </c>
+      <c r="W22" t="n">
+        <v>907120</v>
+      </c>
+      <c r="X22" t="n">
+        <v>336669.998090488</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1741895</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2525269</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>[10.002717399969697]</t>
+        </is>
+      </c>
+      <c r="AF22" t="n">
+        <v>10.0027173999697</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.0027173999697</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>15485.67483296214</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15392</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>4890.657300104568</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>3228</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>35069</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>38092</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1495</v>
+      </c>
+      <c r="AQ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>[2.1281762002035975]</t>
+        </is>
+      </c>
+      <c r="AS22" t="n">
+        <v>2.128176200203598</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.128176200203598</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>11658.09523809524</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>11960</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1987.928403387893</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>3196</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>17813</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>20664</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1363</v>
+      </c>
+      <c r="BD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>[1.2063468997366726]</t>
+        </is>
+      </c>
+      <c r="BF22" t="n">
+        <v>1.206346899736673</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.206346899736673</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>8776</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>8425.5</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1335.300283628228</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>11488</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>16661</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0.8230676328502415</v>
+      </c>
+      <c r="BQ22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1706</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[0.4245400996878743]</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4245400996878743</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.4245400996878743</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>742647.6875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>907422</v>
+      </c>
+      <c r="K23" t="n">
+        <v>422516.9797630537</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1742379</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2525753</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1706</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>[0.42874349979683757]</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>0.4287434997968376</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.4287434997968376</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>769381.1612903225</v>
+      </c>
+      <c r="W23" t="n">
+        <v>906980</v>
+      </c>
+      <c r="X23" t="n">
+        <v>389530.8393368529</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1741803</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2525241</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>[10.003117400221527]</t>
+        </is>
+      </c>
+      <c r="AF23" t="n">
+        <v>10.00311740022153</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.00311740022153</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15352.50989010989</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15348</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>4964.947089635049</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>35105</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>37956</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1495</v>
+      </c>
+      <c r="AQ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>[2.11738339997828]</t>
+        </is>
+      </c>
+      <c r="AS23" t="n">
+        <v>2.11738339997828</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.11738339997828</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>11608.55208333333</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>11771.5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>2071.845751573076</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>17669</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>20504</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1363</v>
+      </c>
+      <c r="BD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>[1.2209299001842737]</t>
+        </is>
+      </c>
+      <c r="BF23" t="n">
+        <v>1.220929900184274</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.220929900184274</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>8684.285714285714</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>8312</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1467.683118069066</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>13793</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>16675</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0.8763188745603752</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0.7989449003516998</v>
+      </c>
+      <c r="BQ23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[0.4529035999439657]</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4529035999439657</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4529035999439657</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>769714.6285714286</v>
+      </c>
+      <c r="J24" t="n">
+        <v>907800</v>
+      </c>
+      <c r="K24" t="n">
+        <v>391162.2230034555</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3228</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1742715</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2526089</v>
+      </c>
+      <c r="O24" t="n">
+        <v>16</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1750</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[0.449870599899441]</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>0.449870599899441</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.449870599899441</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>781752.3939393939</v>
+      </c>
+      <c r="W24" t="n">
+        <v>906889</v>
+      </c>
+      <c r="X24" t="n">
+        <v>401452.2765121761</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1772773</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2525245</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>[10.003014300018549]</t>
+        </is>
+      </c>
+      <c r="AF24" t="n">
+        <v>10.00301430001855</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.00301430001855</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15263.16483516483</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>15028</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>4932.105182824423</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34761</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>37612</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1495</v>
+      </c>
+      <c r="AQ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>[2.2114289002493024]</t>
+        </is>
+      </c>
+      <c r="AS24" t="n">
+        <v>2.211428900249302</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.211428900249302</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>11501.19</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>11747</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1965.261247675779</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>17455</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>20442</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>1363</v>
+      </c>
+      <c r="BD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>[1.2560646999627352]</t>
+        </is>
+      </c>
+      <c r="BF24" t="n">
+        <v>1.256064699962735</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.256064699962735</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>8908.186440677966</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>8540</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1523.214698053002</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>14342</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>16691</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0.8542857142857143</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0.7788571428571428</v>
+      </c>
+      <c r="BQ24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" t="n">
+        <v>17</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1736</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[0.4312334000132978]</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4312334000132978</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4312334000132978</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>786611.6875</v>
+      </c>
+      <c r="J25" t="n">
+        <v>907088</v>
+      </c>
+      <c r="K25" t="n">
+        <v>387513.9497615153</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2940</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1742375</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2525749</v>
+      </c>
+      <c r="O25" t="n">
+        <v>17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1736</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[0.4222750002518296]</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>0.4222750002518296</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.4222750002518296</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>755247.4375</v>
+      </c>
+      <c r="W25" t="n">
+        <v>906966</v>
+      </c>
+      <c r="X25" t="n">
+        <v>406545.4580396159</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2940</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1741923</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2525297</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>[10.00362109998241]</t>
+        </is>
+      </c>
+      <c r="AF25" t="n">
+        <v>10.00362109998241</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.00362109998241</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15389.66739606127</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>15388</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>4994.458120740805</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2940</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>35195</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>38556</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1495</v>
+      </c>
+      <c r="AQ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>[2.1044238996692]</t>
+        </is>
+      </c>
+      <c r="AS25" t="n">
+        <v>2.1044238996692</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.1044238996692</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>11580.70967741935</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>11663</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1947.176822438094</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>3228</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>17423</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>20360</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1363</v>
+      </c>
+      <c r="BD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>[1.180109899956733]</t>
+        </is>
+      </c>
+      <c r="BF25" t="n">
+        <v>1.180109899956733</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.180109899956733</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>8491.471698113208</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>8286</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1307.354236672348</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>3100</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>12183</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>16291</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0.8611751152073732</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0.7851382488479263</v>
+      </c>
+      <c r="BQ25" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="AO6:BA6"/>
+    <mergeCell ref="BB6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
     <mergeCell ref="AB6:AN6"/>
-    <mergeCell ref="BB6:BD6"/>
     <mergeCell ref="B6:N6"/>
     <mergeCell ref="O6:AA6"/>
   </mergeCells>
